--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,112 +43,130 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>inches</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>lasted</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>ok</t>
@@ -157,136 +175,115 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>work</t>
+    <t>2</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>much</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>much</t>
+    <t>made</t>
   </si>
   <si>
     <t>get</t>
@@ -301,18 +298,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
   </si>
   <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>learn</t>
   </si>
   <si>
     <t>christmas</t>
@@ -716,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -803,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3">
-        <v>0.7846153846153846</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -827,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -856,16 +847,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -877,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -885,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7954545454545454</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>0.7678571428571429</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -927,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -935,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6">
-        <v>0.7083333333333334</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -977,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -985,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.78125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7">
-        <v>0.6774193548387096</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1027,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1035,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8">
-        <v>0.5283018867924528</v>
+        <v>0.515625</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,37 +1076,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>0.453125</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1127,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10">
-        <v>0.4347826086956522</v>
+        <v>0.339344262295082</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>414</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>414</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,16 +1197,16 @@
         <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11">
-        <v>0.3327868852459017</v>
+        <v>0.3185078909612625</v>
       </c>
       <c r="L11">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="M11">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>814</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,16 +1247,16 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12">
-        <v>0.2797704447632712</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L12">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>502</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,13 +1276,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6935483870967742</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C13">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1303,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13">
-        <v>0.2593360995850623</v>
+        <v>0.225</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1327,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>357</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,16 +1347,16 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14">
-        <v>0.2583333333333334</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1377,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1385,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.668918918918919</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1403,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.1590214067278287</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.631578947368421</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1453,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K16">
-        <v>0.1896024464831804</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L16">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1477,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1485,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17">
-        <v>0.1216931216931217</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L17">
         <v>23</v>
@@ -1527,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1535,13 +1526,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K18">
-        <v>0.1171875</v>
+        <v>0.08676599474145487</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1585,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,31 +1594,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>0.1044176706827309</v>
+        <v>0.04025974025974026</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>223</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5546218487394958</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,31 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20">
-        <v>0.08238387379491674</v>
-      </c>
-      <c r="L20">
-        <v>94</v>
-      </c>
-      <c r="M20">
-        <v>94</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1047</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,31 +1670,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21">
-        <v>0.03569110966904607</v>
-      </c>
-      <c r="L21">
-        <v>55</v>
-      </c>
-      <c r="M21">
-        <v>55</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1486</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1735,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5333333333333333</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1753,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5185185185185185</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1779,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5172413793103449</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1756,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5161290322580645</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5142857142857142</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1865,13 +1808,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1883,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1891,13 +1834,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1909,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1917,13 +1860,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4869565217391305</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C29">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1935,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>177</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1943,13 +1886,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4526315789473684</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1961,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1969,13 +1912,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4444444444444444</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1987,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1995,13 +1938,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4330708661417323</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2013,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2021,13 +1964,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.421875</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2047,13 +1990,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4216867469879518</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2065,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2073,13 +2016,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4047619047619048</v>
+        <v>0.359375</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2091,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2099,13 +2042,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3877551020408163</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2117,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2125,13 +2068,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.360655737704918</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2143,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2151,13 +2094,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.35</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2169,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,10 +2123,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2195,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2203,13 +2146,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3203125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C40">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2221,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2229,13 +2172,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3168316831683168</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2247,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2255,13 +2198,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.303370786516854</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2273,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2281,13 +2224,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2909090909090909</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2299,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2307,13 +2250,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2835820895522388</v>
+        <v>0.3125</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2325,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2333,13 +2276,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2758620689655172</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2351,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2359,13 +2302,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2753623188405797</v>
+        <v>0.2890625</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2377,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2385,13 +2328,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2698412698412698</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2403,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2411,13 +2354,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2678571428571428</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2429,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2437,13 +2380,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2559241706161137</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2455,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2463,13 +2406,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2527472527472527</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2481,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2489,13 +2432,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2525773195876289</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2507,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2515,13 +2458,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.24</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2533,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2541,13 +2484,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2346938775510204</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2559,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2567,13 +2510,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2112676056338028</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2585,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2593,13 +2536,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2033898305084746</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2611,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>94</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2619,13 +2562,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2027027027027027</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2637,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>59</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2645,13 +2588,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1884057971014493</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C57">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D57">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2663,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>224</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2671,13 +2614,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.188034188034188</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2689,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2697,25 +2640,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1857142857142857</v>
+        <v>0.1708766716196137</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>114</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2723,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1752577319587629</v>
+        <v>0.165</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2741,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>80</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2749,25 +2692,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1634472511144131</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C61">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>563</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2775,13 +2718,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.16</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C62">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D62">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2793,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>147</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2801,13 +2744,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1574074074074074</v>
+        <v>0.16</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2819,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2827,13 +2770,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.154639175257732</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2845,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2853,13 +2796,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1528662420382166</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2871,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2879,13 +2822,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1518987341772152</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C66">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D66">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2897,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>268</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2905,13 +2848,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.145</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2923,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2931,13 +2874,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="C68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2949,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2957,13 +2900,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1360759493670886</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2975,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2983,13 +2926,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1325648414985591</v>
+        <v>0.1152737752161383</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D70">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E70">
         <v>0.02</v>
@@ -3001,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3009,13 +2952,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1256830601092896</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3027,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3035,13 +2978,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1214953271028037</v>
+        <v>0.109375</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3053,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3061,13 +3004,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.118942731277533</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3079,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>400</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3087,13 +3030,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1038961038961039</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3105,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>138</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3113,25 +3056,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1013698630136986</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>328</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3139,13 +3082,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09677419354838709</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3157,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>224</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3165,25 +3108,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09574468085106383</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3191,13 +3134,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09363295880149813</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3209,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3217,13 +3160,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08900523560209424</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3235,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>174</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3243,25 +3186,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08854166666666667</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>175</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3269,13 +3212,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06785714285714285</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3287,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3295,25 +3238,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.06743421052631579</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="C82">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>567</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3321,13 +3264,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0623608017817372</v>
+        <v>0.05070422535211268</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3339,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>421</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3347,25 +3290,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.05915492957746479</v>
+        <v>0.04746835443037975</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3373,25 +3316,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.05092592592592592</v>
+        <v>0.0397196261682243</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F85">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3399,25 +3342,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.03504672897196261</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F86">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>413</v>
+        <v>768</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3425,51 +3368,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03413400758533502</v>
+        <v>0.02446483180428135</v>
       </c>
       <c r="C87">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F87">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.03211009174311927</v>
-      </c>
-      <c r="C88">
-        <v>21</v>
-      </c>
-      <c r="D88">
-        <v>22</v>
-      </c>
-      <c r="E88">
-        <v>0.05</v>
-      </c>
-      <c r="F88">
-        <v>0.95</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
